--- a/assets/files/E1.xlsx
+++ b/assets/files/E1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,1998 +625,1996 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>4.0201005025125625</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>41.206030150753769</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>19.095477386934672</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>30.150753768844222</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>5.5276381909547743</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>0.53475935828877008</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>31.550802139037433</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>21.925133689839573</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>29.946524064171122</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4">
         <v>16.042780748663102</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <v>187</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>2.3316062176165802</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>36.528497409326427</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>20.466321243523318</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>30.051813471502591</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>10.621761658031089</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>1.6129032258064515</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>29.032258064516128</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>8.870967741935484</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>49.193548387096776</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>11.290322580645162</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>248</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>0.82644628099173556</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>55.371900826446279</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>25.619834710743802</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>5.785123966942149</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>12.396694214876034</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>121</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>1.3550135501355014</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>37.669376693766935</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>14.363143631436314</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>34.959349593495936</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>11.653116531165312</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>8.0178173719376389</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>34.298440979955458</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>9.799554565701559</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>34.966592427616924</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>12.917594654788418</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>449</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>4.9382716049382713</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>32.921810699588477</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>7.4074074074074074</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>40.74074074074074</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>13.991769547325102</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>243</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>6.9364161849710984</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>33.815028901734102</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>8.9595375722543356</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>36.994219653179194</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>13.294797687861271</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>692</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>69.620253164556956</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>7.5949367088607591</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>22.784810126582279</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>1.7985611510791366</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>59.352517985611513</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>11.151079136690647</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>23.381294964028775</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>4.3165467625899279</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>1.4005602240896358</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>61.624649859943979</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>10.364145658263306</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>23.249299719887954</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>3.3613445378151261</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>13.714285714285714</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>24.571428571428573</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>7.4285714285714288</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>47.428571428571431</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>6.8571428571428568</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>175</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>9.2783505154639183</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>24.742268041237114</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>12.371134020618557</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>40.206185567010309</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>13.402061855670103</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>97</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>12.132352941176471</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>24.632352941176471</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>9.1911764705882355</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>44.852941176470587</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>9.1911764705882355</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>2.0512820512820511</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>29.743589743589745</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>1.5384615384615385</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>66.15384615384616</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>0.51282051282051277</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>3.755868544600939</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>42.25352112676056</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>52.582159624413144</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>1.408450704225352</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>2.9411764705882355</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>36.274509803921568</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>0.73529411764705888</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>59.068627450980394</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>0.98039215686274506</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>20.930232558139537</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>11.627906976744185</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>37.209302325581397</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>30.232558139534884</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>2.147239263803681</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>23.312883435582823</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>9.5092024539877293</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>52.45398773006135</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>12.576687116564417</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>326</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>1.897018970189702</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>23.035230352303522</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>9.7560975609756095</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>50.677506775067748</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>14.634146341463415</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>4.8780487804878048</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>27.642276422764226</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>12.195121951219512</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>47.154471544715449</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>8.1300813008130088</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>246</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>5.0359712230215825</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>25.899280575539567</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>25.179856115107913</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>33.093525179856115</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>10.791366906474821</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>4.9350649350649354</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>27.012987012987011</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>16.883116883116884</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>42.077922077922075</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>9.0909090909090917</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>51.724137931034484</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>16.091954022988507</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>29.885057471264368</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>2.2988505747126435</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>0.71174377224199292</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>38.078291814946617</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>4.9822064056939501</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>53.736654804270465</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>2.4911032028469751</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>0.54347826086956519</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>41.304347826086953</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>7.6086956521739131</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>48.097826086956523</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>2.4456521739130435</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>0.5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>10.5</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>68.5</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>20.5</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>21.546961325966851</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>4.972375690607735</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>62.983425414364639</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>10.497237569060774</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="5">
         <v>181</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>0.26246719160104987</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>15.748031496062993</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>2.3622047244094486</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>65.879265091863516</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="4">
         <v>15.748031496062993</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>0.44247787610619471</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>39.823008849557525</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>5.3097345132743365</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>54.424778761061944</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>2.5974025974025974</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>29.870129870129869</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>12.337662337662337</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>54.545454545454547</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>0.64935064935064934</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>1.3157894736842106</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>35.789473684210527</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>8.1578947368421044</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>54.473684210526315</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <v>0.26315789473684209</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>16.738197424892704</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>29.184549356223176</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>17.596566523605151</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>24.463519313304722</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>12.017167381974248</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>233</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>5.5045871559633026</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>30.275229357798164</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>22.935779816513762</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>33.944954128440365</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>7.3394495412844041</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>109</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>13.157894736842104</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>29.532163742690059</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>19.298245614035089</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>27.485380116959064</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>10.526315789473685</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>342</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>15.447154471544716</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>25.203252032520325</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>10.56910569105691</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>37.398373983739837</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>11.382113821138212</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>123</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>7.1713147410358564</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>39.442231075697208</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>9.9601593625498008</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>33.466135458167329</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>9.9601593625498008</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>251</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>9.8930481283422456</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>34.759358288770052</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>10.160427807486631</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>34.759358288770052</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>10.427807486631016</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>18.75</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>37.5</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>16.666666666666668</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>20.833333333333332</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>6.25</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>4.7904191616766463</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>31.736526946107784</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>23.053892215568862</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>27.844311377245511</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>12.574850299401197</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>334</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>6.5445026178010473</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>32.460732984293195</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>22.251308900523561</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>26.963350785340314</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>11.780104712041885</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>2</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>30.666666666666668</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>3.3333333333333335</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>64</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>0</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>0.84745762711864403</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>20.762711864406779</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>0</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>78.389830508474574</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <v>0</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>1.2953367875647668</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>24.611398963730569</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>1.2953367875647668</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>72.797927461139892</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <v>0</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="4">
         <v>3.1578947368421053</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>25</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>16.315789473684209</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>42.10526315789474</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>13.421052631578947</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>380</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>3.1578947368421053</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>25</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>16.315789473684209</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>42.10526315789474</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>13.421052631578947</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>8.1081081081081088</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>40.54054054054054</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>5.4054054054054053</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>32.432432432432435</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>13.513513513513514</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>37</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>7.8078078078078077</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>19.219219219219219</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>30.930930930930931</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>27.927927927927929</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>14.114114114114114</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>333</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>7.8378378378378377</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>21.351351351351351</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>28.378378378378379</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>28.378378378378379</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>14.054054054054054</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>1.1494252873563218</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>37.356321839080458</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>9.1954022988505741</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>52.298850574712645</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>0</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>174</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>0</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>51.366120218579233</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>8.1967213114754092</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>40.437158469945352</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="4">
         <v>0</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>0.56022408963585435</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>44.537815126050418</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>8.6834733893557416</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>46.218487394957982</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="4">
         <v>0</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>3.0303030303030303</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>21.212121212121211</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>24.242424242424242</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>30.303030303030305</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>21.212121212121211</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>2.1798365122615806</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>19.891008174386922</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>27.247956403269754</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>35.149863760217983</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>15.531335149863761</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>367</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>2.25</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>20</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>27</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>34.75</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>16</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>26.600985221674875</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>9.8522167487684733</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>52.216748768472904</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>7.8817733990147785</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>6.1111111111111107</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>28.333333333333332</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>10.555555555555555</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>48.333333333333336</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>4.6997389033942563</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>27.41514360313316</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>10.182767624020888</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>50.391644908616186</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>7.3107049608355092</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>9.8265895953757223</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>20.23121387283237</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>12.138728323699421</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>49.710982658959537</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>8.0924855491329488</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>7.3170731707317076</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>27.317073170731707</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>16.097560975609756</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>37.073170731707314</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>12.195121951219512</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>8.4656084656084651</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>24.074074074074073</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>14.285714285714286</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>42.857142857142854</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>10.317460317460318</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>7.4468085106382977</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>29.787234042553191</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>8.5106382978723403</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>46.808510638297875</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>7.4468085106382977</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>16.410256410256409</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>10.256410256410257</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>56.92307692307692</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>9.7435897435897427</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>7.0496083550913839</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>22.97650130548303</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>9.3994778067885125</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>51.958224543080938</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>8.6161879895561366</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>0.62893081761006286</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>4.4025157232704402</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>0.94339622641509435</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>94.025157232704402</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>0</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>318</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>0</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>24.590163934426229</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>8.1967213114754092</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>59.016393442622949</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="4">
         <v>8.1967213114754092</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>61</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>0.52770448548812665</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>7.6517150395778364</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>2.1108179419525066</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>88.390501319261219</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>1.3192612137203166</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>7.4468085106382977</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>42.021276595744681</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>14.893617021276595</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>29.787234042553191</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>5.8510638297872344</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>188</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>3.6842105263157894</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>25.789473684210527</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>5.7894736842105265</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>58.94736842105263</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>5.7894736842105265</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>190</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>5.5555555555555554</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>33.862433862433861</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>10.317460317460318</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>44.444444444444443</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>5.8201058201058204</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>2.4305555555555554</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>49.826388888888886</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>7.6388888888888893</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>37.152777777777779</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>2.9513888888888888</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>576</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>3.3948339483394836</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>28.85608856088561</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>16.826568265682656</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>38.376383763837637</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>12.546125461254613</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1355</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>3.1071983428275507</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>35.111341273951318</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>14.085965820818229</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>38.011393060590365</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>9.6841015018125329</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1931</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>0</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>28.571428571428573</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>38.571428571428569</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>31.428571428571427</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="4">
         <v>1.4285714285714286</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <v>140</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>2.641509433962264</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>40.188679245283019</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>16.981132075471699</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>32.641509433962263</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>7.5471698113207548</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>530</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>2.08955223880597</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>37.761194029850749</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>21.492537313432837</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>32.388059701492537</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>6.2686567164179108</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>670</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>9.7744360902255636</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>29.323308270676691</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>18.796992481203006</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>35.338345864661655</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>6.7669172932330826</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>133</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>10.582010582010582</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>24.338624338624339</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>11.111111111111111</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>42.328042328042329</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>11.640211640211641</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>189</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>10.248447204968944</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>26.397515527950311</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>14.285714285714286</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>39.440993788819874</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>9.6273291925465845</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>8.6419753086419746</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>30.452674897119341</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>18.106995884773664</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>37.860082304526749</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>4.9382716049382713</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>243</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>9.8360655737704921</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>25.409836065573771</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>9.0163934426229506</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>45.901639344262293</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>9.8360655737704921</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>9.0410958904109595</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>28.767123287671232</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>15.068493150684931</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>40.547945205479451</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>6.5753424657534243</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>0.64516129032258063</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>37.41935483870968</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>7.096774193548387</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>49.032258064516128</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>5.806451612903226</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>5.1948051948051948</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>12.987012987012987</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>39.82683982683983</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>8.6580086580086579</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>231</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>3.3678756476683938</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>34.974093264248708</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>10.621761658031089</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>43.523316062176164</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>7.5129533678756477</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>0.90090090090090091</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>27.027027027027028</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>13.513513513513514</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>52.252252252252255</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>6.3063063063063067</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>7.7205882352941178</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>34.558823529411768</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>12.867647058823529</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>36.397058823529413</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>8.4558823529411757</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>5.7441253263707575</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>32.375979112271537</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>13.054830287206267</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>40.992167101827675</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>7.8328981723237598</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>20</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>20</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>20</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>20</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="4">
         <v>20</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>6.1452513966480451</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>26.815642458100559</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>11.173184357541899</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>45.25139664804469</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>10.614525139664805</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>358</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>6.7024128686327078</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>26.541554959785522</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>11.528150134048257</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>44.23592493297587</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>10.99195710455764</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>373</v>
       </c>
     </row>
